--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
@@ -534,52 +534,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.2625717959945</v>
+        <v>12.40257566666667</v>
       </c>
       <c r="H2">
-        <v>11.2625717959945</v>
+        <v>37.20772700000001</v>
       </c>
       <c r="I2">
-        <v>0.3388352528928944</v>
+        <v>0.3428195387305676</v>
       </c>
       <c r="J2">
-        <v>0.3388352528928944</v>
+        <v>0.3428195387305676</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.06415553476299</v>
+        <v>3.217721</v>
       </c>
       <c r="N2">
-        <v>3.06415553476299</v>
+        <v>9.653162999999999</v>
       </c>
       <c r="O2">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="P2">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="Q2">
-        <v>34.5102717043621</v>
+        <v>39.90802817672234</v>
       </c>
       <c r="R2">
-        <v>34.5102717043621</v>
+        <v>359.172253590501</v>
       </c>
       <c r="S2">
-        <v>0.1821960536510681</v>
+        <v>0.0925933055047593</v>
       </c>
       <c r="T2">
-        <v>0.1821960536510681</v>
+        <v>0.09259330550475932</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.2625717959945</v>
+        <v>12.40257566666667</v>
       </c>
       <c r="H3">
-        <v>11.2625717959945</v>
+        <v>37.20772700000001</v>
       </c>
       <c r="I3">
-        <v>0.3388352528928944</v>
+        <v>0.3428195387305676</v>
       </c>
       <c r="J3">
-        <v>0.3388352528928944</v>
+        <v>0.3428195387305676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.63434283948263</v>
+        <v>8.695641666666667</v>
       </c>
       <c r="N3">
-        <v>2.63434283948263</v>
+        <v>26.086925</v>
       </c>
       <c r="O3">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="P3">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="Q3">
-        <v>29.66947536493713</v>
+        <v>107.8483537410528</v>
       </c>
       <c r="R3">
-        <v>29.66947536493713</v>
+        <v>970.6351836694752</v>
       </c>
       <c r="S3">
-        <v>0.1566391992418262</v>
+        <v>0.2502262332258083</v>
       </c>
       <c r="T3">
-        <v>0.1566391992418262</v>
+        <v>0.2502262332258083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.5761055165062</v>
+        <v>10.65713966666667</v>
       </c>
       <c r="H4">
-        <v>10.5761055165062</v>
+        <v>31.971419</v>
       </c>
       <c r="I4">
-        <v>0.3181828673076069</v>
+        <v>0.294573950033059</v>
       </c>
       <c r="J4">
-        <v>0.3181828673076069</v>
+        <v>0.2945739500330591</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.06415553476299</v>
+        <v>3.217721</v>
       </c>
       <c r="N4">
-        <v>3.06415553476299</v>
+        <v>9.653162999999999</v>
       </c>
       <c r="O4">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="P4">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="Q4">
-        <v>32.40683225463986</v>
+        <v>34.29170210536633</v>
       </c>
       <c r="R4">
-        <v>32.40683225463986</v>
+        <v>308.625318948297</v>
       </c>
       <c r="S4">
-        <v>0.1710910015055377</v>
+        <v>0.07956248891225377</v>
       </c>
       <c r="T4">
-        <v>0.1710910015055377</v>
+        <v>0.07956248891225379</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5761055165062</v>
+        <v>10.65713966666667</v>
       </c>
       <c r="H5">
-        <v>10.5761055165062</v>
+        <v>31.971419</v>
       </c>
       <c r="I5">
-        <v>0.3181828673076069</v>
+        <v>0.294573950033059</v>
       </c>
       <c r="J5">
-        <v>0.3181828673076069</v>
+        <v>0.2945739500330591</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.63434283948263</v>
+        <v>8.695641666666667</v>
       </c>
       <c r="N5">
-        <v>2.63434283948263</v>
+        <v>26.086925</v>
       </c>
       <c r="O5">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="P5">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="Q5">
-        <v>27.86108783702085</v>
+        <v>92.67066773295278</v>
       </c>
       <c r="R5">
-        <v>27.86108783702085</v>
+        <v>834.036009596575</v>
       </c>
       <c r="S5">
-        <v>0.1470918658020691</v>
+        <v>0.2150114611208053</v>
       </c>
       <c r="T5">
-        <v>0.1470918658020691</v>
+        <v>0.2150114611208053</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.49021897301407</v>
+        <v>2.916194666666667</v>
       </c>
       <c r="H6">
-        <v>2.49021897301407</v>
+        <v>8.748584000000001</v>
       </c>
       <c r="I6">
-        <v>0.0749184103563266</v>
+        <v>0.08060652378538533</v>
       </c>
       <c r="J6">
-        <v>0.0749184103563266</v>
+        <v>0.08060652378538534</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.06415553476299</v>
+        <v>3.217721</v>
       </c>
       <c r="N6">
-        <v>3.06415553476299</v>
+        <v>9.653162999999999</v>
       </c>
       <c r="O6">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="P6">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="Q6">
-        <v>7.63041824893287</v>
+        <v>9.383500819021334</v>
       </c>
       <c r="R6">
-        <v>7.63041824893287</v>
+        <v>84.45150737119201</v>
       </c>
       <c r="S6">
-        <v>0.04028458844289359</v>
+        <v>0.02177129258785545</v>
       </c>
       <c r="T6">
-        <v>0.04028458844289359</v>
+        <v>0.02177129258785545</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.49021897301407</v>
+        <v>2.916194666666667</v>
       </c>
       <c r="H7">
-        <v>2.49021897301407</v>
+        <v>8.748584000000001</v>
       </c>
       <c r="I7">
-        <v>0.0749184103563266</v>
+        <v>0.08060652378538533</v>
       </c>
       <c r="J7">
-        <v>0.0749184103563266</v>
+        <v>0.08060652378538534</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.63434283948263</v>
+        <v>8.695641666666667</v>
       </c>
       <c r="N7">
-        <v>2.63434283948263</v>
+        <v>26.086925</v>
       </c>
       <c r="O7">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="P7">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="Q7">
-        <v>6.560090520303403</v>
+        <v>25.35818385157778</v>
       </c>
       <c r="R7">
-        <v>6.560090520303403</v>
+        <v>228.2236546642</v>
       </c>
       <c r="S7">
-        <v>0.034633821913433</v>
+        <v>0.05883523119752988</v>
       </c>
       <c r="T7">
-        <v>0.034633821913433</v>
+        <v>0.05883523119752989</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.6751884393474</v>
+        <v>5.547057666666666</v>
       </c>
       <c r="H8">
-        <v>4.6751884393474</v>
+        <v>16.641173</v>
       </c>
       <c r="I8">
-        <v>0.1406533681526984</v>
+        <v>0.1533261962440107</v>
       </c>
       <c r="J8">
-        <v>0.1406533681526984</v>
+        <v>0.1533261962440107</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.06415553476299</v>
+        <v>3.217721</v>
       </c>
       <c r="N8">
-        <v>3.06415553476299</v>
+        <v>9.653162999999999</v>
       </c>
       <c r="O8">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="P8">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="Q8">
-        <v>14.32550453248628</v>
+        <v>17.84888394224433</v>
       </c>
       <c r="R8">
-        <v>14.32550453248628</v>
+        <v>160.639955480199</v>
       </c>
       <c r="S8">
-        <v>0.07563111686685388</v>
+        <v>0.04141239843934975</v>
       </c>
       <c r="T8">
-        <v>0.07563111686685388</v>
+        <v>0.04141239843934976</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.6751884393474</v>
+        <v>5.547057666666666</v>
       </c>
       <c r="H9">
-        <v>4.6751884393474</v>
+        <v>16.641173</v>
       </c>
       <c r="I9">
-        <v>0.1406533681526984</v>
+        <v>0.1533261962440107</v>
       </c>
       <c r="J9">
-        <v>0.1406533681526984</v>
+        <v>0.1533261962440107</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.63434283948263</v>
+        <v>8.695641666666667</v>
       </c>
       <c r="N9">
-        <v>2.63434283948263</v>
+        <v>26.086925</v>
       </c>
       <c r="O9">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="P9">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="Q9">
-        <v>12.31604918842679</v>
+        <v>48.23522577366944</v>
       </c>
       <c r="R9">
-        <v>12.31604918842679</v>
+        <v>434.117031963025</v>
       </c>
       <c r="S9">
-        <v>0.06502225128584455</v>
+        <v>0.1119137978046609</v>
       </c>
       <c r="T9">
-        <v>0.06502225128584455</v>
+        <v>0.1119137978046609</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.23499444366399</v>
+        <v>4.655179333333333</v>
       </c>
       <c r="H10">
-        <v>4.23499444366399</v>
+        <v>13.965538</v>
       </c>
       <c r="I10">
-        <v>0.1274101012904736</v>
+        <v>0.1286737912069773</v>
       </c>
       <c r="J10">
-        <v>0.1274101012904736</v>
+        <v>0.1286737912069773</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.06415553476299</v>
+        <v>3.217721</v>
       </c>
       <c r="N10">
-        <v>3.06415553476299</v>
+        <v>9.653162999999999</v>
       </c>
       <c r="O10">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="P10">
-        <v>0.5377128031853882</v>
+        <v>0.2700934312193076</v>
       </c>
       <c r="Q10">
-        <v>12.97668166424353</v>
+        <v>14.97906829963266</v>
       </c>
       <c r="R10">
-        <v>12.97668166424353</v>
+        <v>134.811614696694</v>
       </c>
       <c r="S10">
-        <v>0.06851004271903482</v>
+        <v>0.03475394577508926</v>
       </c>
       <c r="T10">
-        <v>0.06851004271903482</v>
+        <v>0.03475394577508927</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.23499444366399</v>
+        <v>4.655179333333333</v>
       </c>
       <c r="H11">
-        <v>4.23499444366399</v>
+        <v>13.965538</v>
       </c>
       <c r="I11">
-        <v>0.1274101012904736</v>
+        <v>0.1286737912069773</v>
       </c>
       <c r="J11">
-        <v>0.1274101012904736</v>
+        <v>0.1286737912069773</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.63434283948263</v>
+        <v>8.695641666666667</v>
       </c>
       <c r="N11">
-        <v>2.63434283948263</v>
+        <v>26.086925</v>
       </c>
       <c r="O11">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="P11">
-        <v>0.4622871968146117</v>
+        <v>0.7299065687806925</v>
       </c>
       <c r="Q11">
-        <v>11.15642728791496</v>
+        <v>40.47977137673889</v>
       </c>
       <c r="R11">
-        <v>11.15642728791496</v>
+        <v>364.31794239065</v>
       </c>
       <c r="S11">
-        <v>0.0589000585714388</v>
+        <v>0.09391984543188804</v>
       </c>
       <c r="T11">
-        <v>0.0589000585714388</v>
+        <v>0.09391984543188807</v>
       </c>
     </row>
   </sheetData>
